--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\MStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8187B1-B154-4006-99FF-6C1715AEBC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CF64A6-0F50-4C19-8C5F-66E2FBA10CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -85,24 +85,12 @@
     <t>txt_orgCode_ocp</t>
   </si>
   <si>
-    <t>txt_title_ocp</t>
-  </si>
-  <si>
     <t>dropdown_approYear_ocp</t>
   </si>
   <si>
-    <t>dropdown_agency_ocp</t>
-  </si>
-  <si>
-    <t>toggle_setStatus_ocp</t>
-  </si>
-  <si>
     <t>txt_reportToOrg_ocp</t>
   </si>
   <si>
-    <t>button_saveDetails_ocp</t>
-  </si>
-  <si>
     <t>getData=OrgCode</t>
   </si>
   <si>
@@ -139,12 +127,6 @@
     <t>getData=PresentDate</t>
   </si>
   <si>
-    <t>date_startdate_ocp</t>
-  </si>
-  <si>
-    <t>date_enddate_ocp</t>
-  </si>
-  <si>
     <t>PresentDate</t>
   </si>
   <si>
@@ -164,6 +146,24 @@
   </si>
   <si>
     <t xml:space="preserve"> J02 - J02 </t>
+  </si>
+  <si>
+    <t>txt_title</t>
+  </si>
+  <si>
+    <t>button_setStatus</t>
+  </si>
+  <si>
+    <t>txt_endDate</t>
+  </si>
+  <si>
+    <t>txt_startdate</t>
+  </si>
+  <si>
+    <t>button_saveDetails</t>
+  </si>
+  <si>
+    <t>dropdown_agency</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -630,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -638,24 +638,24 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -663,10 +663,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -674,7 +674,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
@@ -690,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476CA35-691B-4A94-952A-7B45B4B2A990}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -721,28 +721,28 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
@@ -753,22 +753,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>2023</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CF64A6-0F50-4C19-8C5F-66E2FBA10CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFBAF26-4FFE-4C4F-82BC-3C7809150D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -82,88 +82,88 @@
     <t>getData=SaveButton</t>
   </si>
   <si>
+    <t>dropdown_approYear_ocp</t>
+  </si>
+  <si>
+    <t>getData=OrgCode</t>
+  </si>
+  <si>
+    <t>getData=ApproYear</t>
+  </si>
+  <si>
+    <t>getData=Agency</t>
+  </si>
+  <si>
+    <t>AutoDemo1</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>ApproYear</t>
+  </si>
+  <si>
+    <t>OrgCode</t>
+  </si>
+  <si>
+    <t>enterPresentDate</t>
+  </si>
+  <si>
+    <t>enterDate</t>
+  </si>
+  <si>
+    <t>getData=PresentDate</t>
+  </si>
+  <si>
+    <t>PresentDate</t>
+  </si>
+  <si>
+    <t>ExpDate</t>
+  </si>
+  <si>
+    <t>Offset3</t>
+  </si>
+  <si>
+    <t>getConfigData=ExpDate</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>NAN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - J02 </t>
+  </si>
+  <si>
+    <t>txt_title</t>
+  </si>
+  <si>
+    <t>button_setStatus</t>
+  </si>
+  <si>
+    <t>txt_endDate</t>
+  </si>
+  <si>
+    <t>txt_startdate</t>
+  </si>
+  <si>
+    <t>button_saveDetails</t>
+  </si>
+  <si>
+    <t>dropdown_agency</t>
+  </si>
+  <si>
     <t>txt_orgCode_ocp</t>
   </si>
   <si>
-    <t>dropdown_approYear_ocp</t>
-  </si>
-  <si>
     <t>txt_reportToOrg_ocp</t>
   </si>
   <si>
-    <t>getData=OrgCode</t>
-  </si>
-  <si>
-    <t>getData=ApproYear</t>
-  </si>
-  <si>
-    <t>getData=Agency</t>
-  </si>
-  <si>
     <t>getData=Report</t>
-  </si>
-  <si>
-    <t>AutoDemo1</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>ApproYear</t>
-  </si>
-  <si>
-    <t>OrgCode</t>
-  </si>
-  <si>
-    <t>enterPresentDate</t>
-  </si>
-  <si>
-    <t>enterDate</t>
-  </si>
-  <si>
-    <t>getData=PresentDate</t>
-  </si>
-  <si>
-    <t>PresentDate</t>
-  </si>
-  <si>
-    <t>ExpDate</t>
-  </si>
-  <si>
-    <t>Offset3</t>
-  </si>
-  <si>
-    <t>getConfigData=ExpDate</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>NAN9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
-    <t>txt_title</t>
-  </si>
-  <si>
-    <t>button_setStatus</t>
-  </si>
-  <si>
-    <t>txt_endDate</t>
-  </si>
-  <si>
-    <t>txt_startdate</t>
-  </si>
-  <si>
-    <t>button_saveDetails</t>
-  </si>
-  <si>
-    <t>dropdown_agency</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -608,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -630,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -638,24 +638,24 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -663,10 +663,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -674,7 +674,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476CA35-691B-4A94-952A-7B45B4B2A990}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,28 +721,28 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
@@ -753,22 +753,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>2023</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFBAF26-4FFE-4C4F-82BC-3C7809150D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7498896F-B101-4631-8F91-274CDC451D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Keyword</t>
   </si>
@@ -164,13 +164,22 @@
   </si>
   <si>
     <t>getData=Report</t>
+  </si>
+  <si>
+    <t>smallWaitForElementPresent</t>
+  </si>
+  <si>
+    <t>link_orgCodeProfile_wait</t>
+  </si>
+  <si>
+    <t>getData=WaitForPageLoad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +195,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +220,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -258,13 +280,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,23 +570,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,102 +606,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -690,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476CA35-691B-4A94-952A-7B45B4B2A990}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7498896F-B101-4631-8F91-274CDC451D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302C5F1F-1D3D-4F23-8302-F19458FC85A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Keyword</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>getData=WaitForPageLoad</t>
+  </si>
+  <si>
+    <t>verifyElementNotPresent</t>
+  </si>
+  <si>
+    <t>txt_last_proc_date</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -290,6 +296,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -623,35 +630,38 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -659,64 +669,75 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302C5F1F-1D3D-4F23-8302-F19458FC85A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C71399E-2A05-465A-B297-2765B6E28B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Keyword</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>AddNewProfile_OrganizationCodeProfile</t>
   </si>
 </sst>
 </file>
@@ -577,16 +583,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -630,49 +636,50 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -680,64 +687,75 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
